--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartProcessConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartProcessConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22845" windowHeight="11640"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="StartProcessConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -65,6 +65,33 @@
   </si>
   <si>
     <t>Game4</t>
+  </si>
+  <si>
+    <t>Robot1</t>
+  </si>
+  <si>
+    <t>Robot2</t>
+  </si>
+  <si>
+    <t>Robot3</t>
+  </si>
+  <si>
+    <t>Robot4</t>
+  </si>
+  <si>
+    <t>Robot5</t>
+  </si>
+  <si>
+    <t>Robot6</t>
+  </si>
+  <si>
+    <t>Robot7</t>
+  </si>
+  <si>
+    <t>Robot8</t>
+  </si>
+  <si>
+    <t>Robot9</t>
   </si>
 </sst>
 </file>
@@ -1064,19 +1091,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:G10"/>
+  <dimension ref="C1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7583333333333" style="1" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.4083333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.0916666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.1272727272727" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7545454545455" style="1" customWidth="1"/>
+    <col min="3" max="5" width="12.6272727272727" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.4090909090909" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.0909090909091" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1092,7 +1119,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="3:7">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="3:7">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1109,7 +1136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="3:7">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="3:7">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1126,7 +1153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="3:7">
+    <row r="5" s="1" customFormat="1" ht="13.5" spans="3:7">
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1226,6 +1253,159 @@
       </c>
       <c r="G10" s="4" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7">
+      <c r="C11" s="4">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>20005</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12" s="4">
+        <v>6</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>20006</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" s="4">
+        <v>7</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>20007</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="C14" s="4">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>20008</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="C15" s="4">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
+        <v>20009</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7">
+      <c r="C16" s="4">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>20010</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" s="4">
+        <v>11</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>20011</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="4">
+        <v>12</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>20012</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="4">
+        <v>13</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>20013</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartProcessConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartProcessConfig@s.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Id</t>
   </si>
@@ -65,33 +65,6 @@
   </si>
   <si>
     <t>Game4</t>
-  </si>
-  <si>
-    <t>Robot1</t>
-  </si>
-  <si>
-    <t>Robot2</t>
-  </si>
-  <si>
-    <t>Robot3</t>
-  </si>
-  <si>
-    <t>Robot4</t>
-  </si>
-  <si>
-    <t>Robot5</t>
-  </si>
-  <si>
-    <t>Robot6</t>
-  </si>
-  <si>
-    <t>Robot7</t>
-  </si>
-  <si>
-    <t>Robot8</t>
-  </si>
-  <si>
-    <t>Robot9</t>
   </si>
 </sst>
 </file>
@@ -1091,10 +1064,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:G19"/>
+  <dimension ref="C1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -1255,159 +1228,6 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="3:7">
-      <c r="C11" s="4">
-        <v>5</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4">
-        <v>20005</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7">
-      <c r="C12" s="4">
-        <v>6</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
-        <v>20006</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7">
-      <c r="C13" s="4">
-        <v>7</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4">
-        <v>20007</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7">
-      <c r="C14" s="4">
-        <v>8</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4">
-        <v>20008</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7">
-      <c r="C15" s="4">
-        <v>9</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4">
-        <v>20009</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7">
-      <c r="C16" s="4">
-        <v>10</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4">
-        <v>20010</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7">
-      <c r="C17" s="4">
-        <v>11</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4">
-        <v>20011</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7">
-      <c r="C18" s="4">
-        <v>12</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4">
-        <v>20012</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7">
-      <c r="C19" s="4">
-        <v>13</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>20013</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartProcessConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartProcessConfig@s.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Id</t>
   </si>
@@ -52,19 +52,22 @@
     <t>Server</t>
   </si>
   <si>
+    <t>Game1</t>
+  </si>
+  <si>
+    <t>Game2</t>
+  </si>
+  <si>
+    <t>Game3</t>
+  </si>
+  <si>
+    <t>Game4</t>
+  </si>
+  <si>
     <t>GmWeb</t>
   </si>
   <si>
-    <t>Game1</t>
-  </si>
-  <si>
-    <t>Game2</t>
-  </si>
-  <si>
-    <t>Game3</t>
-  </si>
-  <si>
-    <t>Game4</t>
+    <t>Watcher</t>
   </si>
 </sst>
 </file>
@@ -1064,10 +1067,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:G10"/>
+  <dimension ref="C1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -1144,14 +1147,14 @@
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="3:7">
-      <c r="C6" s="2">
-        <v>99</v>
+      <c r="C6" s="4">
+        <v>1000</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
       </c>
       <c r="E6" s="4">
-        <v>20099</v>
+        <v>20001</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>11</v>
@@ -1162,13 +1165,13 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="3:7">
       <c r="C7" s="4">
-        <v>1</v>
+        <v>1100</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="E7" s="4">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>11</v>
@@ -1179,13 +1182,13 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="3:7">
       <c r="C8" s="4">
-        <v>2</v>
+        <v>1200</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="E8" s="4">
-        <v>20002</v>
+        <v>20003</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>11</v>
@@ -1196,13 +1199,13 @@
     </row>
     <row r="9" s="1" customFormat="1" spans="3:7">
       <c r="C9" s="4">
-        <v>3</v>
+        <v>1300</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
       </c>
       <c r="E9" s="4">
-        <v>20003</v>
+        <v>20004</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>11</v>
@@ -1212,20 +1215,37 @@
       </c>
     </row>
     <row r="10" spans="3:7">
-      <c r="C10" s="4">
-        <v>4</v>
+      <c r="C10" s="2">
+        <v>1900</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
       </c>
       <c r="E10" s="4">
-        <v>20004</v>
+        <v>20099</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7">
+      <c r="C11" s="2">
+        <v>9999</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>29999</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
